--- a/ig/nr-prepare-ballot-release/StructureDefinition-gap-fr-appointment.xlsx
+++ b/ig/nr-prepare-ballot-release/StructureDefinition-gap-fr-appointment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T08:10:19+00:00</t>
+    <t>2023-10-10T11:41:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
